--- a/ShiftExchRequest_template.xlsx
+++ b/ShiftExchRequest_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9008F8BC-FACF-4B9C-B4A4-B703DD03FC95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32654EF-CBD1-4950-95E6-D333500CEF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,5 +507,6 @@
     <hyperlink ref="B3" r:id="rId2" display="https://test.imredi.biz/admin/user/position/31/change/" xr:uid="{24BA0E56-0101-4A4B-A69D-0C90A5EF9887}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/ShiftExchRequest_template.xlsx
+++ b/ShiftExchRequest_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32654EF-CBD1-4950-95E6-D333500CEF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5637C40-4F3F-462E-ACC7-91F5399C7162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1230" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -422,15 +422,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
@@ -469,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>45069.680555555555</v>
+        <v>45073.680555555555</v>
       </c>
       <c r="D2" s="3">
-        <v>45069.6875</v>
+        <v>45073.6875</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -489,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45071.680555555555</v>
+        <v>45073.680555555555</v>
       </c>
       <c r="D3" s="3">
-        <v>45071.6875</v>
+        <v>45073.6875</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>

--- a/ShiftExchRequest_template.xlsx
+++ b/ShiftExchRequest_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5637C40-4F3F-462E-ACC7-91F5399C7162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6B1B5-FF7C-466D-95B5-AD2F29C1FEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1230" windowWidth="17300" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>45073.680555555555</v>
+        <v>45104.680555555555</v>
       </c>
       <c r="D2" s="3">
-        <v>45073.6875</v>
+        <v>45104.6875</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -490,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45073.680555555555</v>
+        <v>45104.680555555555</v>
       </c>
       <c r="D3" s="3">
-        <v>45073.6875</v>
+        <v>45104.6875</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>

--- a/ShiftExchRequest_template.xlsx
+++ b/ShiftExchRequest_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF6B1B5-FF7C-466D-95B5-AD2F29C1FEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1887D-20EA-4966-A600-A1AE65FF6A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="18990" windowHeight="8680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>45104.680555555555</v>
+        <v>45165.680555555555</v>
       </c>
       <c r="D2" s="3">
-        <v>45104.6875</v>
+        <v>45165.6875</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -490,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45104.680555555555</v>
+        <v>45165.680555555555</v>
       </c>
       <c r="D3" s="3">
-        <v>45104.6875</v>
+        <v>45165.6875</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>

--- a/ShiftExchRequest_template.xlsx
+++ b/ShiftExchRequest_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\autotest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1887D-20EA-4966-A600-A1AE65FF6A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDFA2BD-0D8E-4A02-8DEC-EEFC35A7042C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="1520" windowWidth="18990" windowHeight="8620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>45165.680555555555</v>
+        <v>45196.680555555555</v>
       </c>
       <c r="D2" s="3">
-        <v>45165.6875</v>
+        <v>45196.6875</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -490,10 +490,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>45165.680555555555</v>
+        <v>45196.680555555555</v>
       </c>
       <c r="D3" s="3">
-        <v>45165.6875</v>
+        <v>45196.6875</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
